--- a/TestSuite-API/reports/daily_reading_report.xlsx
+++ b/TestSuite-API/reports/daily_reading_report.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark.Wang\Documents\robotframework\LoRaWANScripts\Project\TestSuite-API\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="report" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="enviornment" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="appserver" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="devices" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="yl_command" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="yl_command_test" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="device info" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="report" sheetId="1" r:id="rId1"/>
+    <sheet name="enviornment" sheetId="2" r:id="rId2"/>
+    <sheet name="appserver" sheetId="3" r:id="rId3"/>
+    <sheet name="devices" sheetId="4" r:id="rId4"/>
+    <sheet name="yl_command" sheetId="5" r:id="rId5"/>
+    <sheet name="yl_command_test" sheetId="6" r:id="rId6"/>
+    <sheet name="device info" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="323">
   <si>
     <t>Date
 Period</t>
@@ -1004,58 +1009,57 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF66FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFFF66FF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1114,41 +1118,50 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="26" name="Good" xfId="1"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1438,31 +1451,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="21"/>
-    <col bestFit="1" customWidth="1" max="3" min="2" width="7.85546875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="17.7109375"/>
-    <col customWidth="1" max="5" min="5" width="17.42578125"/>
-    <col customWidth="1" max="6" min="6" width="15.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="24.140625"/>
-    <col customWidth="1" max="10" min="8" width="23.28515625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="14" width="255.7109375"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="255.7109375"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="45" r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1574,35 +1583,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="21.42578125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="36.5703125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="36.85546875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="33.140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="34.28515625"/>
-    <col customWidth="1" max="19" min="6" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="20" style="1" width="9.140625"/>
+    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="22" width="9.140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1789,12 +1794,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1807,34 +1812,30 @@
     <hyperlink ref="D11" r:id="rId7"/>
     <hyperlink ref="E11" r:id="rId8"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="16.85546875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="17.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="33.28515625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="16.140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="23.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="16.85546875"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -1864,195 +1865,191 @@
       <c r="D2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="5" t="n"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="16.5703125"/>
-    <col customWidth="1" max="2" min="2" width="11.5703125"/>
-    <col customWidth="1" max="3" min="3" width="19.7109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="4" width="16.5703125"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -2066,11 +2063,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8001</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2080,11 +2077,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8002</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2094,11 +2091,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>8003</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2108,11 +2105,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8004</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2122,11 +2119,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>8005</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2136,11 +2133,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8006</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2150,11 +2147,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8007</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2164,11 +2161,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8008</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2178,11 +2175,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8009</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2192,11 +2189,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8010</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2206,145 +2203,141 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="35"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="53.28515625"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
@@ -2352,25 +2345,25 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="3" t="n"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>160</v>
       </c>
@@ -2378,13 +2371,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>160</v>
       </c>
@@ -2392,13 +2385,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="3" t="n"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>164</v>
       </c>
@@ -2406,13 +2399,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="3" t="n"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>164</v>
       </c>
@@ -2420,13 +2413,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="3" t="n"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>168</v>
       </c>
@@ -2434,13 +2427,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>168</v>
       </c>
@@ -2448,19 +2441,19 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="3" t="n"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>171</v>
       </c>
@@ -2468,13 +2461,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="3" t="n"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>171</v>
       </c>
@@ -2482,13 +2475,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="3" t="n"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>175</v>
       </c>
@@ -2496,13 +2489,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="3" t="n"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>175</v>
       </c>
@@ -2510,13 +2503,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
@@ -2524,13 +2517,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>179</v>
       </c>
@@ -2538,13 +2531,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>183</v>
       </c>
@@ -2552,13 +2545,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>183</v>
       </c>
@@ -2566,13 +2559,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>187</v>
       </c>
@@ -2580,13 +2573,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="3" t="n"/>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>187</v>
       </c>
@@ -2594,13 +2587,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="3" t="n"/>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>191</v>
       </c>
@@ -2608,13 +2601,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="3" t="n"/>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>191</v>
       </c>
@@ -2622,13 +2615,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="3" t="n"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>195</v>
       </c>
@@ -2636,13 +2629,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="3" t="n"/>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>195</v>
       </c>
@@ -2650,25 +2643,25 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="3" t="n"/>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="3" t="n"/>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B47" s="3" t="n"/>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>201</v>
       </c>
@@ -2676,13 +2669,13 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="3" t="n"/>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>201</v>
       </c>
@@ -2690,19 +2683,19 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B51" s="3" t="n"/>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="3" t="n"/>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>206</v>
       </c>
@@ -2710,13 +2703,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="3" t="n"/>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>206</v>
       </c>
@@ -2724,13 +2717,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="3" t="n"/>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>210</v>
       </c>
@@ -2738,13 +2731,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="3" t="n"/>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>210</v>
       </c>
@@ -2752,13 +2745,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="3" t="n"/>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>214</v>
       </c>
@@ -2766,13 +2759,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="3" t="n"/>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>214</v>
       </c>
@@ -2780,36 +2773,32 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B64" s="3" t="n"/>
+      <c r="B64" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="35"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="54.28515625"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
@@ -2817,13 +2806,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>187</v>
       </c>
@@ -2832,37 +2821,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="16.85546875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" width="16.85546875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="17.28515625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="16.85546875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="17.5703125"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>217</v>
       </c>
@@ -2897,7 +2882,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>227</v>
       </c>
@@ -2932,7 +2917,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>235</v>
       </c>
@@ -2967,7 +2952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>241</v>
       </c>
@@ -3002,7 +2987,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>247</v>
       </c>
@@ -3037,7 +3022,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>246</v>
       </c>
@@ -3072,7 +3057,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>250</v>
       </c>
@@ -3107,7 +3092,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>259</v>
       </c>
@@ -3142,7 +3127,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>263</v>
       </c>
@@ -3177,7 +3162,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>267</v>
       </c>
@@ -3212,7 +3197,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>254</v>
       </c>
@@ -3247,7 +3232,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>273</v>
       </c>
@@ -3270,7 +3255,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>275</v>
       </c>
@@ -3293,7 +3278,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>277</v>
       </c>
@@ -3316,7 +3301,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>258</v>
       </c>
@@ -3339,7 +3324,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>279</v>
       </c>
@@ -3362,7 +3347,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>262</v>
       </c>
@@ -3385,7 +3370,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>266</v>
       </c>
@@ -3408,7 +3393,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>281</v>
       </c>
@@ -3431,7 +3416,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>283</v>
       </c>
@@ -3454,7 +3439,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>285</v>
       </c>
@@ -3477,7 +3462,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>287</v>
       </c>
@@ -3500,7 +3485,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>289</v>
       </c>
@@ -3523,7 +3508,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>291</v>
       </c>
@@ -3546,7 +3531,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>295</v>
       </c>
@@ -3569,7 +3554,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>297</v>
       </c>
@@ -3592,7 +3577,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>299</v>
       </c>
@@ -3615,7 +3600,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>301</v>
       </c>
@@ -3638,7 +3623,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>303</v>
       </c>
@@ -3661,7 +3646,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>305</v>
       </c>
@@ -3684,7 +3669,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>307</v>
       </c>
@@ -3707,7 +3692,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>272</v>
       </c>
@@ -3730,7 +3715,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>309</v>
       </c>
@@ -3753,7 +3738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>311</v>
       </c>
@@ -3776,7 +3761,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>313</v>
       </c>
@@ -3799,7 +3784,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>315</v>
       </c>
@@ -3816,7 +3801,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>317</v>
       </c>
@@ -3833,7 +3818,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>319</v>
       </c>
@@ -3850,7 +3835,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>321</v>
       </c>
@@ -3867,7 +3852,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>309</v>
       </c>
@@ -3884,7 +3869,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>297</v>
       </c>
@@ -3901,9 +3886,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="3" t="n"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>265</v>
       </c>
@@ -3911,9 +3896,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="3" t="n"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>71</v>
       </c>
@@ -3921,9 +3906,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="3" t="n"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
@@ -3931,9 +3916,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="3" t="n"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
         <v>80</v>
       </c>
@@ -3941,9 +3926,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="3" t="n"/>
-      <c r="B46" s="3" t="n"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>70</v>
       </c>
@@ -3951,9 +3936,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="3" t="n"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
         <v>77</v>
       </c>
@@ -3961,9 +3946,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="3" t="n"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
         <v>81</v>
       </c>
@@ -3971,9 +3956,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="3" t="n"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
         <v>269</v>
       </c>
@@ -3981,9 +3966,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="3" t="n"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
         <v>98</v>
       </c>
@@ -3991,9 +3976,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="3" t="n"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
         <v>271</v>
       </c>
@@ -4002,6 +3987,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestSuite-API/reports/daily_reading_report.xlsx
+++ b/TestSuite-API/reports/daily_reading_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Date
 Period</t>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>['7ff9010202000042', '7ff9010202000131', '7ff9010202000151']</t>
+  </si>
+  <si>
+    <t>17-10-07 ~ 17-10-08</t>
+  </si>
+  <si>
+    <t>['7ff9010202000022', '7ff9010202000035', '7ff9010202000085']</t>
   </si>
 </sst>
 </file>
@@ -619,7 +625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="D15" sqref="D15"/>
@@ -1204,6 +1210,50 @@
         <v>70</v>
       </c>
     </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/TestSuite-API/reports/daily_reading_report.xlsx
+++ b/TestSuite-API/reports/daily_reading_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Date
 Period</t>
@@ -244,6 +244,27 @@
   </si>
   <si>
     <t>['7ff9010202000022', '7ff9010202000035', '7ff9010202000085']</t>
+  </si>
+  <si>
+    <t>17-10-08 ~ 17-10-09</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>81.71%</t>
+  </si>
+  <si>
+    <t>['7ff9010202000026', '7ff9010202000039', '7ff9010202000040', '7ff9010202000056', '7ff9010202000057', '7ff9010202000067', '7ff9010202000083', '7ff9010202000084', '7ff9010202000095', '7ff9010202000104', '7ff9010202000108', '7ff9010202000112', '7ff9010202000113', '7ff9010202000126', '7ff9010202000138']</t>
+  </si>
+  <si>
+    <t>17-10-09 ~ 17-10-10</t>
+  </si>
+  <si>
+    <t>['7ff9010202000057', '7ff9010202000069', '7ff9010202000131', '7ff9010202000163']</t>
   </si>
 </sst>
 </file>
@@ -625,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="D15" sqref="D15"/>
@@ -1254,6 +1275,94 @@
         <v>72</v>
       </c>
     </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/TestSuite-API/reports/daily_reading_report.xlsx
+++ b/TestSuite-API/reports/daily_reading_report.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>Date
 Period</t>
@@ -265,6 +265,84 @@
   </si>
   <si>
     <t>['7ff9010202000057', '7ff9010202000069', '7ff9010202000131', '7ff9010202000163']</t>
+  </si>
+  <si>
+    <t>17-10-10 ~ 17-10-11</t>
+  </si>
+  <si>
+    <t>['7ff9010202000031', '7ff9010202000057', '7ff9010202000060', '7ff9010202000104', '7ff9010202000126']</t>
+  </si>
+  <si>
+    <t>17-10-11 ~ 17-10-12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>97.56%</t>
+  </si>
+  <si>
+    <t>['7ff9010202000151', '7ff9010202000163']</t>
+  </si>
+  <si>
+    <t>17-10-12 ~ 17-10-13</t>
+  </si>
+  <si>
+    <t>['7ff9010202000059', '7ff9010202000082', '7ff9010202000097', '7ff9010202000106', '7ff9010202000123']</t>
+  </si>
+  <si>
+    <t>17-10-13 ~ 17-10-14</t>
+  </si>
+  <si>
+    <t>['7ff9010202000067', '7ff9010202000082', '7ff9010202000088', '7ff9010202000129', '7ff9010202000163']</t>
+  </si>
+  <si>
+    <t>17-10-14 ~ 17-10-15</t>
+  </si>
+  <si>
+    <t>['7ff9010202000057', '7ff9010202000121', '7ff9010202000146']</t>
+  </si>
+  <si>
+    <t>17-10-15 ~ 17-10-16</t>
+  </si>
+  <si>
+    <t>17-10-16 ~ 17-10-17</t>
+  </si>
+  <si>
+    <t>17-10-17 ~ 17-10-18</t>
+  </si>
+  <si>
+    <t>17-10-18 ~ 17-10-19</t>
+  </si>
+  <si>
+    <t>17-10-19 ~ 17-10-20</t>
+  </si>
+  <si>
+    <t>17-10-20 ~ 17-10-21</t>
+  </si>
+  <si>
+    <t>17-10-21 ~ 17-10-22</t>
+  </si>
+  <si>
+    <t>17-10-22 ~ 17-10-23</t>
+  </si>
+  <si>
+    <t>17-10-23 ~ 17-10-24</t>
+  </si>
+  <si>
+    <t>17-10-24 ~ 17-10-25</t>
+  </si>
+  <si>
+    <t>17-10-25 ~ 17-10-26</t>
+  </si>
+  <si>
+    <t>17-10-26 ~ 17-10-27</t>
+  </si>
+  <si>
+    <t>17-10-27 ~ 17-10-28</t>
   </si>
 </sst>
 </file>
@@ -646,10 +724,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1363,6 +1441,798 @@
         <v>79</v>
       </c>
     </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/TestSuite-API/reports/daily_reading_report.xlsx
+++ b/TestSuite-API/reports/daily_reading_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Date
 Period</t>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>17-10-27 ~ 17-10-28</t>
+  </si>
+  <si>
+    <t>17-10-28 ~ 17-10-29</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="A25" sqref="A25"/>
@@ -2233,6 +2236,50 @@
         <v>32</v>
       </c>
     </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/TestSuite-API/reports/daily_reading_report.xlsx
+++ b/TestSuite-API/reports/daily_reading_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Date
 Period</t>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>17-10-28 ~ 17-10-29</t>
+  </si>
+  <si>
+    <t>17-10-31 ~ 17-11-01</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
+    <t>['7ff9010202000024', '7ff9010202000025', '7ff9010202000026', '7ff9010202000027', '7ff9010202000028']</t>
   </si>
 </sst>
 </file>
@@ -727,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="A25" sqref="A25"/>
@@ -2280,6 +2289,50 @@
         <v>46</v>
       </c>
     </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>109</v>
+      </c>
+      <c r="N37" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
